--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1872690.055718801</v>
+        <v>-1875496.001773992</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>255.5418356687829</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>414.0588908408161</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.7362573623985</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.5224906587258</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>71.73533428546386</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>180.675913495203</v>
       </c>
       <c r="T2" t="n">
-        <v>133.163940175983</v>
+        <v>217.6509107473003</v>
       </c>
       <c r="U2" t="n">
-        <v>19.50483544437503</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>119.2297186087882</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6780005204371</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8079545549729</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>66.4830115980271</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>58.83742364780743</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>29.64084844499216</v>
+        <v>159.3214913575833</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.4822295952212</v>
       </c>
       <c r="U3" t="n">
         <v>225.8975980913187</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54.32499390972919</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>138.6714930639232</v>
       </c>
       <c r="J4" t="n">
-        <v>53.91234155828203</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.44160735593289</v>
       </c>
       <c r="R4" t="n">
-        <v>152.206074479934</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>74.56783994544307</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>73.36709716940443</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>101.7334667272551</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>102.1685085355273</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>65.52699321158184</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>9.639350919813134</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>58.38986566647666</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>88.55903902917245</v>
       </c>
       <c r="T8" t="n">
-        <v>10.85614974825452</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26.30660220273166</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>83.03596009984741</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -1339,7 +1339,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,7 +1537,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>20.22544352992953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>185.6920487814947</v>
       </c>
     </row>
     <row r="14">
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>158.2465685970615</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>160.9888698962426</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>111.5512144998715</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>106.3048907942291</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,10 +4195,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1227.529764008747</v>
+        <v>1328.996766238193</v>
       </c>
       <c r="C2" t="n">
-        <v>858.5672470683357</v>
+        <v>960.0342492977812</v>
       </c>
       <c r="D2" t="n">
-        <v>858.5672470683357</v>
+        <v>960.0342492977812</v>
       </c>
       <c r="E2" t="n">
-        <v>472.7789944700915</v>
+        <v>960.0342492977812</v>
       </c>
       <c r="F2" t="n">
-        <v>465.833493720888</v>
+        <v>960.0342492977812</v>
       </c>
       <c r="G2" t="n">
-        <v>47.59218984127579</v>
+        <v>541.792945418169</v>
       </c>
       <c r="H2" t="n">
-        <v>47.59218984127579</v>
+        <v>211.7563218197866</v>
       </c>
       <c r="I2" t="n">
-        <v>47.59218984127579</v>
+        <v>47.59218984127578</v>
       </c>
       <c r="J2" t="n">
-        <v>140.2766257379399</v>
+        <v>140.27662573794</v>
       </c>
       <c r="K2" t="n">
-        <v>399.9313734332738</v>
+        <v>399.9313734332736</v>
       </c>
       <c r="L2" t="n">
-        <v>774.3326757349396</v>
+        <v>774.332675734939</v>
       </c>
       <c r="M2" t="n">
         <v>1207.532809426325</v>
@@ -4343,7 +4343,7 @@
         <v>1633.110576631821</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.783956408645</v>
+        <v>1989.783956408644</v>
       </c>
       <c r="P2" t="n">
         <v>2256.522051210345</v>
@@ -4352,28 +4352,28 @@
         <v>2379.609492063789</v>
       </c>
       <c r="R2" t="n">
-        <v>2307.149558442109</v>
+        <v>2379.609492063789</v>
       </c>
       <c r="S2" t="n">
-        <v>2124.648635719681</v>
+        <v>2197.108569341362</v>
       </c>
       <c r="T2" t="n">
-        <v>1990.13960523889</v>
+        <v>1977.259164546109</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.437751254673</v>
+        <v>1977.259164546109</v>
       </c>
       <c r="V2" t="n">
-        <v>1970.437751254673</v>
+        <v>1977.259164546109</v>
       </c>
       <c r="W2" t="n">
-        <v>1617.669095984559</v>
+        <v>1977.259164546109</v>
       </c>
       <c r="X2" t="n">
-        <v>1617.669095984559</v>
+        <v>1977.259164546109</v>
       </c>
       <c r="Y2" t="n">
-        <v>1227.529764008747</v>
+        <v>1587.119832570297</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8415070889288</v>
+        <v>717.8057001596301</v>
       </c>
       <c r="C3" t="n">
-        <v>814.3884778078018</v>
+        <v>543.3526708785031</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4540681465505</v>
+        <v>394.4182612172518</v>
       </c>
       <c r="E3" t="n">
-        <v>506.216613141095</v>
+        <v>235.1808062117963</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6820551679799</v>
+        <v>114.7467470110001</v>
       </c>
       <c r="G3" t="n">
-        <v>221.6234687837</v>
+        <v>114.7467470110001</v>
       </c>
       <c r="H3" t="n">
         <v>114.7467470110001</v>
       </c>
       <c r="I3" t="n">
-        <v>47.59218984127579</v>
+        <v>47.59218984127578</v>
       </c>
       <c r="J3" t="n">
         <v>109.1010252263745</v>
       </c>
       <c r="K3" t="n">
-        <v>340.8502649974763</v>
+        <v>340.8502649974762</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9860664824283</v>
+        <v>713.8701137890714</v>
       </c>
       <c r="M3" t="n">
-        <v>996.2618574529123</v>
+        <v>1201.145904759555</v>
       </c>
       <c r="N3" t="n">
-        <v>1512.141402063474</v>
+        <v>1717.025449370117</v>
       </c>
       <c r="O3" t="n">
-        <v>1917.654721881348</v>
+        <v>2122.538769187991</v>
       </c>
       <c r="P3" t="n">
-        <v>2226.111844043579</v>
+        <v>2226.111844043578</v>
       </c>
       <c r="Q3" t="n">
         <v>2379.609492063789</v>
       </c>
       <c r="R3" t="n">
-        <v>2320.177751005398</v>
+        <v>2379.609492063789</v>
       </c>
       <c r="S3" t="n">
-        <v>2290.23750005086</v>
+        <v>2218.678692712695</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.23750005086</v>
+        <v>2019.201693121562</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.058108039428</v>
+        <v>1791.022301110129</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.905999807685</v>
+        <v>1555.870192878386</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.668643079483</v>
+        <v>1301.632836150185</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.817142873951</v>
+        <v>1093.781335944652</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.056844108997</v>
+        <v>886.0210371796982</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2225.865982488098</v>
+        <v>2264.448434183611</v>
       </c>
       <c r="C4" t="n">
-        <v>2056.929799560191</v>
+        <v>2095.512251255704</v>
       </c>
       <c r="D4" t="n">
-        <v>2056.929799560191</v>
+        <v>2095.512251255704</v>
       </c>
       <c r="E4" t="n">
-        <v>2002.056068338243</v>
+        <v>1947.599157673311</v>
       </c>
       <c r="F4" t="n">
-        <v>2002.056068338243</v>
+        <v>1947.599157673311</v>
       </c>
       <c r="G4" t="n">
-        <v>2002.056068338243</v>
+        <v>1947.599157673311</v>
       </c>
       <c r="H4" t="n">
-        <v>2002.056068338243</v>
+        <v>1947.599157673311</v>
       </c>
       <c r="I4" t="n">
-        <v>1861.983853122159</v>
+        <v>1807.526942457227</v>
       </c>
       <c r="J4" t="n">
         <v>1807.526942457227</v>
@@ -4495,43 +4495,43 @@
         <v>1959.091268450405</v>
       </c>
       <c r="M4" t="n">
-        <v>2084.865396251694</v>
+        <v>2084.865396251693</v>
       </c>
       <c r="N4" t="n">
-        <v>2213.083512834719</v>
+        <v>2213.083512834718</v>
       </c>
       <c r="O4" t="n">
-        <v>2315.497400688186</v>
+        <v>2315.497400688185</v>
       </c>
       <c r="P4" t="n">
         <v>2379.609492063789</v>
       </c>
       <c r="Q4" t="n">
-        <v>2379.609492063789</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="R4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="S4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="T4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="U4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="V4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="W4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="X4" t="n">
-        <v>2225.865982488098</v>
+        <v>2339.769484633553</v>
       </c>
       <c r="Y4" t="n">
-        <v>2225.865982488098</v>
+        <v>2264.448434183611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1276.616463586936</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="C5" t="n">
-        <v>907.653946646524</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="D5" t="n">
-        <v>549.3882480397735</v>
+        <v>980.7612922789126</v>
       </c>
       <c r="E5" t="n">
-        <v>549.3882480397735</v>
+        <v>594.9730396806683</v>
       </c>
       <c r="F5" t="n">
-        <v>138.402343250166</v>
+        <v>183.9871348910608</v>
       </c>
       <c r="G5" t="n">
-        <v>125.3549655269975</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
-        <v>125.3549655269975</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,22 +4568,22 @@
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>707.8574493821779</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>894.5568622075856</v>
+        <v>1660.479218810943</v>
       </c>
       <c r="N5" t="n">
-        <v>1521.864530267432</v>
+        <v>1927.871136722306</v>
       </c>
       <c r="O5" t="n">
-        <v>2069.02573503451</v>
+        <v>2098.040162039266</v>
       </c>
       <c r="P5" t="n">
-        <v>2498.340781373804</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2191.324429164695</v>
       </c>
       <c r="V5" t="n">
-        <v>2406.124290896983</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>2053.355635626869</v>
+        <v>1757.500464318846</v>
       </c>
       <c r="X5" t="n">
-        <v>2053.355635626869</v>
+        <v>1757.500464318846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1663.216303651057</v>
+        <v>1367.361132343034</v>
       </c>
     </row>
     <row r="6">
@@ -4623,16 +4623,16 @@
         <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
@@ -4644,25 +4644,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313602</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1247.297767139118</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1881.476750918157</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205.501429668238</v>
+        <v>682.9772377479118</v>
       </c>
       <c r="C7" t="n">
-        <v>205.501429668238</v>
+        <v>514.0410548200049</v>
       </c>
       <c r="D7" t="n">
-        <v>205.501429668238</v>
+        <v>363.9244154076692</v>
       </c>
       <c r="E7" t="n">
-        <v>205.501429668238</v>
+        <v>216.0113218252761</v>
       </c>
       <c r="F7" t="n">
-        <v>205.501429668238</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="G7" t="n">
-        <v>205.501429668238</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
         <v>51.24678656800311</v>
@@ -4750,25 +4750,25 @@
         <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>713.2632219991558</v>
+        <v>910.9667886459291</v>
       </c>
       <c r="T7" t="n">
-        <v>713.2632219991558</v>
+        <v>910.9667886459291</v>
       </c>
       <c r="U7" t="n">
-        <v>713.2632219991558</v>
+        <v>910.9667886459291</v>
       </c>
       <c r="V7" t="n">
-        <v>654.2835597097854</v>
+        <v>910.9667886459291</v>
       </c>
       <c r="W7" t="n">
-        <v>654.2835597097854</v>
+        <v>910.9667886459291</v>
       </c>
       <c r="X7" t="n">
-        <v>426.2940088117681</v>
+        <v>682.9772377479118</v>
       </c>
       <c r="Y7" t="n">
-        <v>205.501429668238</v>
+        <v>682.9772377479118</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1571.558046306621</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.59552936621</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,25 +4802,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2472.885753623214</v>
       </c>
       <c r="T8" t="n">
-        <v>2551.373520573636</v>
+        <v>2264.140112229038</v>
       </c>
       <c r="U8" t="n">
-        <v>2297.792459837815</v>
+        <v>2010.559051493218</v>
       </c>
       <c r="V8" t="n">
-        <v>2297.792459837815</v>
+        <v>2010.559051493218</v>
       </c>
       <c r="W8" t="n">
-        <v>1945.023804567701</v>
+        <v>1657.790396223104</v>
       </c>
       <c r="X8" t="n">
-        <v>1571.558046306621</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="Y8" t="n">
-        <v>1571.558046306621</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143501</v>
+        <v>458.7060632252739</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458217</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105042</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878149</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710446</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1087.683159487371</v>
+        <v>874.551279748688</v>
       </c>
       <c r="C10" t="n">
-        <v>918.7469765594642</v>
+        <v>705.6150968207811</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>705.6150968207811</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>557.702003238388</v>
       </c>
       <c r="F10" t="n">
         <v>473.8272960668249</v>
@@ -4987,25 +4987,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1114.255484944676</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>1114.255484944676</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="X10" t="n">
-        <v>1114.255484944676</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="Y10" t="n">
-        <v>1114.255484944676</v>
+        <v>1056.199744578928</v>
       </c>
     </row>
     <row r="11">
@@ -5036,7 +5036,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5048,16 +5048,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5130,7 +5130,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>803.2707707770319</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>653.1541313646961</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>505.241037782303</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5312,7 +5312,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1089.57599612053</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C19" t="n">
         <v>929.7309773356195</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2264.108249235165</v>
+        <v>1814.846060413294</v>
       </c>
       <c r="V19" t="n">
-        <v>2009.423761029278</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="W19" t="n">
-        <v>1720.006590992317</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X19" t="n">
-        <v>1492.0170400943</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y19" t="n">
-        <v>1271.22446095077</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5750,10 +5750,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,19 +5835,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6306,22 +6306,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
         <v>402.7245934908939</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,13 +6841,13 @@
         <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,7 +6880,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
         <v>2438.456847547834</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,10 +7023,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,31 +7093,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656415</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931275</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
         <v>2438.456847547835</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,7 +7600,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7831,22 +7831,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>163.8867621654357</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>111.5091855019135</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,25 +8216,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>73.79566163573867</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.30750202500634</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>449.0750350374088</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933068</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605996</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780647</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>127.1920059946977</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,16 +22553,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>326.7362573623985</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,16 +22601,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>231.741309729516</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>219.808857714918</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>92.10896873683998</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.2665182564294</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.44160735593288</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5616349313748</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2885958948282</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
     </row>
     <row r="14">
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>142.4141550350971</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>9.000252501566337</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>125.1956044930016</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>59.21924749803978</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1196555.46358437</v>
+        <v>1196555.463584369</v>
       </c>
     </row>
     <row r="3">
@@ -26329,7 +26329,7 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612507</v>
@@ -26347,13 +26347,13 @@
         <v>102630.2212330355</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330354</v>
+        <v>102630.2212330355</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>497513.9407656169</v>
+        <v>497513.9407656168</v>
       </c>
       <c r="C3" t="n">
         <v>273432.6815691282</v>
@@ -26390,7 +26390,7 @@
         <v>155652.6364853845</v>
       </c>
       <c r="K3" t="n">
-        <v>11757.20312955447</v>
+        <v>11757.20312955453</v>
       </c>
       <c r="L3" t="n">
         <v>19427.7179936318</v>
@@ -26424,19 +26424,19 @@
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719682</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26451,13 +26451,13 @@
         <v>15498.22772481316</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481316</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668121.0719324822</v>
+        <v>-668481.1549481995</v>
       </c>
       <c r="C6" t="n">
         <v>-454628.0317752972</v>
@@ -26528,25 +26528,25 @@
         <v>-415106.4242765801</v>
       </c>
       <c r="E6" t="n">
-        <v>-515222.0149489219</v>
+        <v>-515256.7528743576</v>
       </c>
       <c r="F6" t="n">
-        <v>-7736.573324376004</v>
+        <v>-7771.311249811712</v>
       </c>
       <c r="G6" t="n">
-        <v>-7736.573324375975</v>
+        <v>-7771.311249811712</v>
       </c>
       <c r="H6" t="n">
-        <v>-7736.573324376048</v>
+        <v>-7771.311249811683</v>
       </c>
       <c r="I6" t="n">
-        <v>-7736.573324376091</v>
+        <v>-7771.311249811755</v>
       </c>
       <c r="J6" t="n">
-        <v>-163389.2098097606</v>
+        <v>-163423.9477351962</v>
       </c>
       <c r="K6" t="n">
-        <v>-19493.77645393048</v>
+        <v>-19528.51437936623</v>
       </c>
       <c r="L6" t="n">
         <v>-35459.8403393249</v>
@@ -26558,10 +26558,10 @@
         <v>-16032.12234569312</v>
       </c>
       <c r="O6" t="n">
+        <v>-16032.12234569315</v>
+      </c>
+      <c r="P6" t="n">
         <v>-16032.12234569312</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-16032.12234569313</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203975</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368312</v>
+        <v>309.4068602368311</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159473</v>
+        <v>594.9023730159472</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>309.4068602368312</v>
+        <v>309.4068602368311</v>
       </c>
       <c r="C3" t="n">
-        <v>284.0692401012339</v>
+        <v>284.069240101234</v>
       </c>
       <c r="D3" t="n">
         <v>340.588791779474</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.9023730159473</v>
+        <v>594.9023730159472</v>
       </c>
       <c r="C4" t="n">
-        <v>45.68245908409153</v>
+        <v>45.68245908409165</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159474</v>
+        <v>594.9023730159472</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409153</v>
+        <v>45.68245908409176</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>594.9023730159473</v>
+        <v>594.9023730159472</v>
       </c>
       <c r="K4" t="n">
-        <v>45.68245908409153</v>
+        <v>45.68245908409165</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.5224906587258</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>71.73533428546388</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>84.4869705713173</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.246145173891</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>107.9434007552169</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25.83949378459566</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6780005204371</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8079545549729</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>58.83742364780745</v>
       </c>
       <c r="S3" t="n">
-        <v>129.6806429125912</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>197.4822295952212</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.4330325613104</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.2665182564294</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.91234155828204</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.206074479934</v>
       </c>
       <c r="S4" t="n">
         <v>214.293107035759</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.5616349313748</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2885958948282</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>144.0168134066517</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>45.12894372448586</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>247.5075019901579</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>70.53999045278842</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>195.7265309803055</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
@@ -27831,7 +27831,7 @@
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>193.7477776573513</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>34.89317636962193</v>
       </c>
       <c r="T8" t="n">
-        <v>195.8020352319792</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.5253779792056</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>62.38508792308383</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28068,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29983,10 +29983,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -30760,7 +30760,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31042,10 +31042,10 @@
         <v>1.243846674318918</v>
       </c>
       <c r="H2" t="n">
-        <v>12.73854475336863</v>
+        <v>12.73854475336862</v>
       </c>
       <c r="I2" t="n">
-        <v>47.95339891168015</v>
+        <v>47.95339891168014</v>
       </c>
       <c r="J2" t="n">
         <v>105.5699316744754</v>
@@ -31054,34 +31054,34 @@
         <v>158.2219613983952</v>
       </c>
       <c r="L2" t="n">
-        <v>196.2883340575829</v>
+        <v>196.2883340575828</v>
       </c>
       <c r="M2" t="n">
         <v>218.4085923520019</v>
       </c>
       <c r="N2" t="n">
-        <v>221.9426717154106</v>
+        <v>221.9426717154105</v>
       </c>
       <c r="O2" t="n">
         <v>209.5741713476518</v>
       </c>
       <c r="P2" t="n">
-        <v>178.8667065754035</v>
+        <v>178.8667065754034</v>
       </c>
       <c r="Q2" t="n">
         <v>134.3214475513572</v>
       </c>
       <c r="R2" t="n">
-        <v>78.13378365568582</v>
+        <v>78.1337836556858</v>
       </c>
       <c r="S2" t="n">
         <v>28.34415609104238</v>
       </c>
       <c r="T2" t="n">
-        <v>5.444938816831067</v>
+        <v>5.444938816831066</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09950773394551345</v>
+        <v>0.09950773394551343</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6655166427735614</v>
+        <v>0.6655166427735613</v>
       </c>
       <c r="H3" t="n">
-        <v>6.427489681523607</v>
+        <v>6.427489681523606</v>
       </c>
       <c r="I3" t="n">
         <v>22.91362125338797</v>
       </c>
       <c r="J3" t="n">
-        <v>62.87672807888284</v>
+        <v>62.87672807888283</v>
       </c>
       <c r="K3" t="n">
         <v>107.4663431447114</v>
@@ -31136,31 +31136,31 @@
         <v>144.5017605285314</v>
       </c>
       <c r="M3" t="n">
-        <v>168.626738829073</v>
+        <v>168.6267388290729</v>
       </c>
       <c r="N3" t="n">
         <v>173.0897868413571</v>
       </c>
       <c r="O3" t="n">
-        <v>158.343339125164</v>
+        <v>158.3433391251639</v>
       </c>
       <c r="P3" t="n">
         <v>127.0844894433128</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.95261566351637</v>
+        <v>84.95261566351635</v>
       </c>
       <c r="R3" t="n">
-        <v>41.3204105048357</v>
+        <v>41.32041050483569</v>
       </c>
       <c r="S3" t="n">
         <v>12.36167974625452</v>
       </c>
       <c r="T3" t="n">
-        <v>2.682499099600451</v>
+        <v>2.68249909960045</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04378398965615538</v>
+        <v>0.04378398965615536</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,7 +31197,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.557946797148384</v>
+        <v>0.5579467971483839</v>
       </c>
       <c r="H4" t="n">
         <v>4.960654251010181</v>
@@ -31209,22 +31209,22 @@
         <v>39.44683855839074</v>
       </c>
       <c r="K4" t="n">
-        <v>64.82327334142133</v>
+        <v>64.82327334142131</v>
       </c>
       <c r="L4" t="n">
-        <v>82.9514720051334</v>
+        <v>82.95147200513338</v>
       </c>
       <c r="M4" t="n">
-        <v>87.46069657481441</v>
+        <v>87.46069657481439</v>
       </c>
       <c r="N4" t="n">
-        <v>85.38107669453413</v>
+        <v>85.38107669453412</v>
       </c>
       <c r="O4" t="n">
-        <v>78.86324365511889</v>
+        <v>78.86324365511888</v>
       </c>
       <c r="P4" t="n">
-        <v>67.4811289932918</v>
+        <v>67.48112899329179</v>
       </c>
       <c r="Q4" t="n">
         <v>46.7204358957615</v>
@@ -31233,7 +31233,7 @@
         <v>25.08731689723551</v>
       </c>
       <c r="S4" t="n">
-        <v>9.723491001213198</v>
+        <v>9.723491001213196</v>
       </c>
       <c r="T4" t="n">
         <v>2.383954496906731</v>
@@ -31850,10 +31850,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32084,13 +32084,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>595.3857163736981</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,13 +32564,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32789,25 +32789,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,13 +33275,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,13 +33743,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,16 +34696,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.62064231986287</v>
+        <v>93.62064231986285</v>
       </c>
       <c r="K2" t="n">
         <v>262.2775229245794</v>
       </c>
       <c r="L2" t="n">
-        <v>378.1831336380461</v>
+        <v>378.183133638046</v>
       </c>
       <c r="M2" t="n">
-        <v>437.5758926175617</v>
+        <v>437.5758926175616</v>
       </c>
       <c r="N2" t="n">
         <v>429.8765325308038</v>
@@ -34714,10 +34714,10 @@
         <v>360.2761411887104</v>
       </c>
       <c r="P2" t="n">
-        <v>269.4324189916166</v>
+        <v>269.4324189916165</v>
       </c>
       <c r="Q2" t="n">
-        <v>124.3307483368124</v>
+        <v>124.3307483368123</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>62.13013675262498</v>
       </c>
       <c r="K3" t="n">
-        <v>234.0901411829311</v>
+        <v>234.090141182931</v>
       </c>
       <c r="L3" t="n">
-        <v>169.8341429140929</v>
+        <v>376.7877260521163</v>
       </c>
       <c r="M3" t="n">
         <v>492.1977686570546</v>
@@ -34790,13 +34790,13 @@
         <v>521.0904491015773</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6094139574491</v>
+        <v>409.609413957449</v>
       </c>
       <c r="P3" t="n">
-        <v>311.5728506689197</v>
+        <v>104.619267530896</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.048129313344</v>
+        <v>155.0481293133439</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.55378151553847</v>
+        <v>42.55378151553846</v>
       </c>
       <c r="L4" t="n">
         <v>110.5414972654495</v>
@@ -34872,7 +34872,7 @@
         <v>103.4483715691586</v>
       </c>
       <c r="P4" t="n">
-        <v>64.75968825818529</v>
+        <v>64.75968825818528</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>270.0928463751148</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>64.64499699631453</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>630.3854757996359</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108629</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215495</v>
+        <v>348.5948060356187</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35270,7 +35270,7 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>24.58388860977091</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35732,13 +35732,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>453.2516824516798</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.454324036777</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,13 +36212,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394658</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,13 +36923,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37391,13 +37391,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
